--- a/src/test/java/com/genvideo/xls/Suite.xlsx
+++ b/src/test/java/com/genvideo/xls/Suite.xlsx
@@ -480,7 +480,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/src/test/java/com/genvideo/xls/Suite.xlsx
+++ b/src/test/java/com/genvideo/xls/Suite.xlsx
@@ -480,7 +480,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/src/test/java/com/genvideo/xls/Suite.xlsx
+++ b/src/test/java/com/genvideo/xls/Suite.xlsx
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/src/test/java/com/genvideo/xls/Suite.xlsx
+++ b/src/test/java/com/genvideo/xls/Suite.xlsx
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/src/test/java/com/genvideo/xls/Suite.xlsx
+++ b/src/test/java/com/genvideo/xls/Suite.xlsx
@@ -480,7 +480,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C3" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -508,7 +508,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -517,7 +517,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/test/java/com/genvideo/xls/Suite.xlsx
+++ b/src/test/java/com/genvideo/xls/Suite.xlsx
@@ -508,7 +508,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -517,7 +517,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/test/java/com/genvideo/xls/Suite.xlsx
+++ b/src/test/java/com/genvideo/xls/Suite.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Test Suite" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -480,7 +480,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C2:C3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -508,7 +508,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -517,7 +517,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/test/java/com/genvideo/xls/Suite.xlsx
+++ b/src/test/java/com/genvideo/xls/Suite.xlsx
@@ -508,7 +508,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -526,7 +526,7 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/test/java/com/genvideo/xls/Suite.xlsx
+++ b/src/test/java/com/genvideo/xls/Suite.xlsx
@@ -508,7 +508,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -526,7 +526,7 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
